--- a/Excel-XLSX/UN-HON.xlsx
+++ b/Excel-XLSX/UN-HON.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>LqZ8N0</t>
+    <t>xSGM0Z</t>
   </si>
   <si>
     <t>1972</t>
@@ -1086,19 +1086,19 @@
     <t>2024</t>
   </si>
   <si>
-    <t>9554</t>
+    <t>16665</t>
   </si>
   <si>
     <t>174</t>
   </si>
   <si>
-    <t>18813</t>
+    <t>22504</t>
   </si>
   <si>
     <t>175</t>
   </si>
   <si>
-    <t>11008</t>
+    <t>11811</t>
   </si>
   <si>
     <t>176</t>
@@ -1107,31 +1107,34 @@
     <t>177</t>
   </si>
   <si>
-    <t>8541</t>
+    <t>19647</t>
   </si>
   <si>
     <t>178</t>
   </si>
   <si>
-    <t>17830</t>
+    <t>36743</t>
   </si>
   <si>
     <t>179</t>
   </si>
   <si>
-    <t>1648</t>
+    <t>5993</t>
   </si>
   <si>
     <t>181</t>
   </si>
   <si>
-    <t>14539</t>
-  </si>
-  <si>
     <t>182</t>
   </si>
   <si>
-    <t>73350</t>
+    <t>106358</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>85405</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1519,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V183"/>
+  <dimension ref="A1:V184"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -13332,7 +13335,7 @@
         <v>48</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="P174" s="2" t="s">
         <v>34</v>
@@ -13400,7 +13403,7 @@
         <v>48</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P175" s="2" t="s">
         <v>34</v>
@@ -13713,16 +13716,16 @@
         <v>355</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>29</v>
@@ -13737,10 +13740,10 @@
         <v>32</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>304</v>
+        <v>34</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="P180" s="2" t="s">
         <v>34</v>
@@ -13755,7 +13758,7 @@
         <v>34</v>
       </c>
       <c r="T180" s="2" t="s">
-        <v>367</v>
+        <v>34</v>
       </c>
       <c r="U180" s="1" t="s">
         <v>35</v>
@@ -13781,16 +13784,16 @@
         <v>355</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>29</v>
@@ -13805,10 +13808,10 @@
         <v>32</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>102</v>
+        <v>317</v>
       </c>
       <c r="O181" s="2" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="P181" s="2" t="s">
         <v>34</v>
@@ -13823,7 +13826,7 @@
         <v>34</v>
       </c>
       <c r="T181" s="2" t="s">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c r="U181" s="1" t="s">
         <v>35</v>
@@ -13849,16 +13852,16 @@
         <v>355</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>29</v>
@@ -13873,7 +13876,7 @@
         <v>32</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="O182" s="2" t="s">
         <v>34</v>
@@ -13891,7 +13894,7 @@
         <v>34</v>
       </c>
       <c r="T182" s="2" t="s">
-        <v>369</v>
+        <v>34</v>
       </c>
       <c r="U182" s="1" t="s">
         <v>35</v>
@@ -13911,60 +13914,128 @@
         <v>22</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>355</v>
       </c>
       <c r="F183" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T183" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="U183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V183" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F184" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="G184" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H183" s="1" t="s">
+      <c r="H184" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I183" s="1" t="s">
+      <c r="I184" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K183" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L183" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M183" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N183" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O183" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P183" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q183" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R183" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S183" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T183" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="U183" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V183" s="2" t="s">
+      <c r="J184" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N184" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O184" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P184" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q184" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R184" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S184" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T184" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="U184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V184" s="2" t="s">
         <v>34</v>
       </c>
     </row>
